--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumLearning\SeleniumFramework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B887EC-1F85-486B-A2B5-904678083B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1C4C61-E6CE-4986-9786-706AC31F2ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Module</t>
   </si>
@@ -72,13 +72,22 @@
   </si>
   <si>
     <t>OB_004</t>
+  </si>
+  <si>
+    <t>Configuration_URL</t>
+  </si>
+  <si>
+    <t>https://spring.io/projects/spring-framework</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-framework/reference/languages.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +108,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,16 +133,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -408,15 +458,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.53125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.1328125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -424,102 +516,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578E1EC6-890A-4407-BDDF-A63507400A9A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.19921875" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
